--- a/biology/Botanique/Square_Robert-Schuman/Square_Robert-Schuman.xlsx
+++ b/biology/Botanique/Square_Robert-Schuman/Square_Robert-Schuman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Robert-Schuman est un square du 16e arrondissement de Paris, longeant le bois de Boulogne et le boulevard Lannes.
@@ -512,11 +524,13 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square est situé entre l'université Paris-Dauphine au nord et le square du Général-Anselin au sud (il est séparé de chacun de ces deux espaces par l'avenue de Pologne), et entre le boulevard Lannes à l'est et l'avenue du Maréchal-Fayolle à l'ouest (qui borde le boulevard périphérique). Il a pour adresse exacte le 41, avenue du Maréchal-Fayolle[1].
-Il est ouvert 24 heures sur 24[1].
-Il est desservi par la ligne 2 à la station Porte Dauphine et par la ligne C du RER à la gare de l'avenue Foch[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square est situé entre l'université Paris-Dauphine au nord et le square du Général-Anselin au sud (il est séparé de chacun de ces deux espaces par l'avenue de Pologne), et entre le boulevard Lannes à l'est et l'avenue du Maréchal-Fayolle à l'ouest (qui borde le boulevard périphérique). Il a pour adresse exacte le 41, avenue du Maréchal-Fayolle.
+Il est ouvert 24 heures sur 24.
+Il est desservi par la ligne 2 à la station Porte Dauphine et par la ligne C du RER à la gare de l'avenue Foch.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce square rend hommage à Robert Schuman (1886-1963), l'un des fondateurs de la construction européenne. Une statue en bronze le représentant y est installée, œuvre du sculpteur Jean-François Hamelin (1985)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce square rend hommage à Robert Schuman (1886-1963), l'un des fondateurs de la construction européenne. Une statue en bronze le représentant y est installée, œuvre du sculpteur Jean-François Hamelin (1985).
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le square s'étend sur 3 559 m2. Il est planté de frênes pleureurs, de marronniers, de peupliers, de tulipiers, de cerisiers à fleurs, d'un chicot du Canada[2] et d'un tilleul. Il possède le label ÉcoJardin[1].
-Une aire de jeux pour enfants et un bac à sable y sont installés. L'accès aux personnes à mobilité réduite est limité à certaines zones du square. Les chiens y sont admis s'ils sont tenus en laisse[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le square s'étend sur 3 559 m2. Il est planté de frênes pleureurs, de marronniers, de peupliers, de tulipiers, de cerisiers à fleurs, d'un chicot du Canada et d'un tilleul. Il possède le label ÉcoJardin.
+Une aire de jeux pour enfants et un bac à sable y sont installés. L'accès aux personnes à mobilité réduite est limité à certaines zones du square. Les chiens y sont admis s'ils sont tenus en laisse.
 De l'autre côté de l'avenue de Pologne, côté sud, se trouve le square du Général-Anselin, lui d'un ordonnancement végétal plus libre.
 Le square longe le bois de Boulogne.
 			Vue du square.
